--- a/Unity/Assets/Config/Excel/sevenday.xlsx
+++ b/Unity/Assets/Config/Excel/sevenday.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="12">
   <si>
     <t>ID</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -61,18 +61,11 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>int[][]</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>[1001,20],[1002,30]</t>
-  </si>
-  <si>
-    <t>[1001,20],[1002,30]</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>[1001,20],[1002,30]</t>
+    <t>int[]</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1001,20</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -507,7 +500,7 @@
   <dimension ref="A1:C12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+      <selection activeCell="C7" sqref="C7:C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -568,7 +561,7 @@
         <v>1</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.3">
@@ -576,7 +569,7 @@
         <v>2</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.3">
